--- a/Code/Results/Cases/Case_4_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.00102749657926</v>
+        <v>11.42766425382235</v>
       </c>
       <c r="C2">
-        <v>12.76848722618972</v>
+        <v>8.427414583316333</v>
       </c>
       <c r="D2">
-        <v>7.248259433604093</v>
+        <v>5.963108808551331</v>
       </c>
       <c r="E2">
-        <v>12.32619197489102</v>
+        <v>11.98782532598147</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.99893074403365</v>
+        <v>23.17167564713594</v>
       </c>
       <c r="H2">
-        <v>8.13528381014557</v>
+        <v>12.5445949370599</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.35538994935504</v>
+        <v>14.03703616595114</v>
       </c>
       <c r="N2">
-        <v>10.99157060228174</v>
+        <v>16.41249102773353</v>
       </c>
       <c r="O2">
-        <v>13.95718863216143</v>
+        <v>18.39355203554458</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.77533133613543</v>
+        <v>10.86516943622082</v>
       </c>
       <c r="C3">
-        <v>12.08258444628876</v>
+        <v>8.088960860294682</v>
       </c>
       <c r="D3">
-        <v>6.746544985867409</v>
+        <v>5.840153089886527</v>
       </c>
       <c r="E3">
-        <v>11.65994188399943</v>
+        <v>11.87239369642501</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.78172535893898</v>
+        <v>22.973279432288</v>
       </c>
       <c r="H3">
-        <v>8.057813173264883</v>
+        <v>12.57489782729059</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.23413602570526</v>
+        <v>13.76052017596205</v>
       </c>
       <c r="N3">
-        <v>11.16147142120405</v>
+        <v>16.46694205877631</v>
       </c>
       <c r="O3">
-        <v>13.58298477453572</v>
+        <v>18.40119252298524</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.97944237937303</v>
+        <v>10.50551810267777</v>
       </c>
       <c r="C4">
-        <v>11.64088420250979</v>
+        <v>7.872365063969617</v>
       </c>
       <c r="D4">
-        <v>6.421260952862279</v>
+        <v>5.765116096129297</v>
       </c>
       <c r="E4">
-        <v>11.24590865091906</v>
+        <v>11.80559634225844</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.03217012349824</v>
+        <v>22.86104530854675</v>
       </c>
       <c r="H4">
-        <v>8.017291970373968</v>
+        <v>12.59622615308106</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.50871192662882</v>
+        <v>13.59111784521103</v>
       </c>
       <c r="N4">
-        <v>11.26904184834619</v>
+        <v>16.50217205575349</v>
       </c>
       <c r="O4">
-        <v>13.36401836012551</v>
+        <v>18.41145443260397</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.64419539329403</v>
+        <v>10.35554677301717</v>
       </c>
       <c r="C5">
-        <v>11.4558085784806</v>
+        <v>7.781974630373615</v>
       </c>
       <c r="D5">
-        <v>6.284337703854264</v>
+        <v>5.734701339224297</v>
       </c>
       <c r="E5">
-        <v>11.07614568971616</v>
+        <v>11.77943057541989</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.7266286997649</v>
+        <v>22.81777068059904</v>
       </c>
       <c r="H5">
-        <v>8.002503032694147</v>
+        <v>12.60560059545602</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.20376587719581</v>
+        <v>13.52227907798822</v>
       </c>
       <c r="N5">
-        <v>11.31369743194269</v>
+        <v>16.51698143150424</v>
       </c>
       <c r="O5">
-        <v>13.27755666149804</v>
+        <v>18.41703412805609</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.5878680548393</v>
+        <v>10.33044399469641</v>
       </c>
       <c r="C6">
-        <v>11.42477319592924</v>
+        <v>7.766839612411873</v>
       </c>
       <c r="D6">
-        <v>6.261336917238042</v>
+        <v>5.729662282604667</v>
       </c>
       <c r="E6">
-        <v>11.04790054049209</v>
+        <v>11.7751502730156</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.6759028528561</v>
+        <v>22.81073504578432</v>
       </c>
       <c r="H6">
-        <v>8.000149974641403</v>
+        <v>12.60719841701979</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.15256560096736</v>
+        <v>13.51086308418349</v>
       </c>
       <c r="N6">
-        <v>11.32116205479692</v>
+        <v>16.51946789977179</v>
       </c>
       <c r="O6">
-        <v>13.26336839492055</v>
+        <v>18.41804495779121</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.9749653456316</v>
+        <v>10.50350908683822</v>
       </c>
       <c r="C7">
-        <v>11.6384086390301</v>
+        <v>7.871154516866065</v>
       </c>
       <c r="D7">
-        <v>6.419432087127326</v>
+        <v>5.764705186236624</v>
       </c>
       <c r="E7">
-        <v>11.24362308457496</v>
+        <v>11.8052391545039</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.02804920435823</v>
+        <v>22.86045166013716</v>
       </c>
       <c r="H7">
-        <v>8.017085608302676</v>
+        <v>12.59634981689599</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.50463712859717</v>
+        <v>13.59018854441525</v>
       </c>
       <c r="N7">
-        <v>11.26964076618677</v>
+        <v>16.50236994516463</v>
       </c>
       <c r="O7">
-        <v>13.36284103145977</v>
+        <v>18.41152402691167</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.58737676674641</v>
+        <v>11.23677823051851</v>
       </c>
       <c r="C8">
-        <v>12.53630035509859</v>
+        <v>8.312585152075789</v>
       </c>
       <c r="D8">
-        <v>7.078822962407613</v>
+        <v>5.920647232685595</v>
       </c>
       <c r="E8">
-        <v>12.09760738155501</v>
+        <v>11.94719640382752</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.57994709602219</v>
+        <v>23.10131311679699</v>
       </c>
       <c r="H8">
-        <v>8.107081826891466</v>
+        <v>12.55447747587737</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.97643037269882</v>
+        <v>13.94167329722321</v>
       </c>
       <c r="N8">
-        <v>11.04947889588855</v>
+        <v>16.4308934295704</v>
       </c>
       <c r="O8">
-        <v>13.82595726019664</v>
+        <v>18.39502883630185</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.40740223510884</v>
+        <v>12.55492158649543</v>
       </c>
       <c r="C9">
-        <v>14.13114876252513</v>
+        <v>9.105432751202807</v>
       </c>
       <c r="D9">
-        <v>8.236797510640351</v>
+        <v>6.228013885831764</v>
       </c>
       <c r="E9">
-        <v>13.72602814492721</v>
+        <v>12.25652570150065</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.58914186024684</v>
+        <v>23.64707837271448</v>
       </c>
       <c r="H9">
-        <v>8.341423350465506</v>
+        <v>12.4940308171819</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.57145719798784</v>
+        <v>14.62971455930249</v>
       </c>
       <c r="N9">
-        <v>10.64347286907925</v>
+        <v>16.30493831284607</v>
       </c>
       <c r="O9">
-        <v>14.81712415521895</v>
+        <v>18.40696945174458</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.27383831688218</v>
+        <v>13.44326418808323</v>
       </c>
       <c r="C10">
-        <v>15.19922875222225</v>
+        <v>9.640082214175804</v>
       </c>
       <c r="D10">
-        <v>9.007523689329622</v>
+        <v>6.452111200377285</v>
       </c>
       <c r="E10">
-        <v>15.0264982125442</v>
+        <v>12.50062401855998</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.76172200616645</v>
+        <v>24.08897227343813</v>
       </c>
       <c r="H10">
-        <v>8.551276372459437</v>
+        <v>12.46291109377723</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.30437596050127</v>
+        <v>15.12900829359884</v>
       </c>
       <c r="N10">
-        <v>10.36086855441559</v>
+        <v>16.22099640872513</v>
       </c>
       <c r="O10">
-        <v>15.59229147809469</v>
+        <v>18.44279837728413</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.07911343409311</v>
+        <v>13.82890593996421</v>
       </c>
       <c r="C11">
-        <v>15.66239150127116</v>
+        <v>9.87235003059169</v>
       </c>
       <c r="D11">
-        <v>9.341293474313368</v>
+        <v>6.553153299465421</v>
       </c>
       <c r="E11">
-        <v>15.63406336230889</v>
+        <v>12.61485847405787</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.7394175024997</v>
+        <v>24.29797674937069</v>
       </c>
       <c r="H11">
-        <v>8.655373495569625</v>
+        <v>12.45165493392587</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.05605566440537</v>
+        <v>15.35371684535628</v>
       </c>
       <c r="N11">
-        <v>10.23574796513689</v>
+        <v>16.18466225931169</v>
       </c>
       <c r="O11">
-        <v>15.95441723151881</v>
+        <v>18.46496350845503</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.37782701381929</v>
+        <v>13.97221207416575</v>
       </c>
       <c r="C12">
-        <v>15.83450925101451</v>
+        <v>9.958691625023866</v>
       </c>
       <c r="D12">
-        <v>9.465306981213626</v>
+        <v>6.591244532042413</v>
       </c>
       <c r="E12">
-        <v>15.86113135947288</v>
+        <v>12.65853443172638</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.10800283221916</v>
+        <v>24.37818866842472</v>
       </c>
       <c r="H12">
-        <v>8.696066507417797</v>
+        <v>12.44781057666444</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.33552547347233</v>
+        <v>15.43837528491133</v>
       </c>
       <c r="N12">
-        <v>10.18886910944805</v>
+        <v>16.17116872037533</v>
       </c>
       <c r="O12">
-        <v>16.09286004327129</v>
+        <v>18.47419783402552</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.31376947784137</v>
+        <v>13.941470872565</v>
       </c>
       <c r="C13">
-        <v>15.79758611789247</v>
+        <v>9.940168721603285</v>
       </c>
       <c r="D13">
-        <v>9.438703497875213</v>
+        <v>6.583049155729971</v>
       </c>
       <c r="E13">
-        <v>15.8123598638428</v>
+        <v>12.64911011295517</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.02869590123091</v>
+        <v>24.36086749010228</v>
       </c>
       <c r="H13">
-        <v>8.687245397744913</v>
+        <v>12.44861991751698</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.27556522616966</v>
+        <v>15.42016317745345</v>
       </c>
       <c r="N13">
-        <v>10.19894285463916</v>
+        <v>16.17406300381817</v>
       </c>
       <c r="O13">
-        <v>16.0629861928422</v>
+        <v>18.47217171346902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.10381315802485</v>
+        <v>13.84075086178405</v>
       </c>
       <c r="C14">
-        <v>15.67661730342796</v>
+        <v>9.879485938079226</v>
       </c>
       <c r="D14">
-        <v>9.351543540671734</v>
+        <v>6.556290749458848</v>
       </c>
       <c r="E14">
-        <v>15.65280389209004</v>
+        <v>12.61844358584601</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.76977471697895</v>
+        <v>24.30455493483103</v>
       </c>
       <c r="H14">
-        <v>8.658695629535718</v>
+        <v>12.45133027147529</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.0791509617255</v>
+        <v>15.36069091237269</v>
       </c>
       <c r="N14">
-        <v>10.23188110888161</v>
+        <v>16.18354682304584</v>
       </c>
       <c r="O14">
-        <v>15.96578093673923</v>
+        <v>18.46570638903228</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.9744000902625</v>
+        <v>13.77869976351531</v>
       </c>
       <c r="C15">
-        <v>15.60209431210058</v>
+        <v>9.842104842673573</v>
       </c>
       <c r="D15">
-        <v>9.297847202448597</v>
+        <v>6.539876960730664</v>
       </c>
       <c r="E15">
-        <v>15.55468363186904</v>
+        <v>12.59971263215293</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.61096102523687</v>
+        <v>24.27019828911317</v>
       </c>
       <c r="H15">
-        <v>8.641374868068125</v>
+        <v>12.4530449194684</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.95817053932194</v>
+        <v>15.32420348523838</v>
       </c>
       <c r="N15">
-        <v>10.25212232778576</v>
+        <v>16.18939047708218</v>
       </c>
       <c r="O15">
-        <v>15.90640962603038</v>
+        <v>18.46185559851677</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.22033650805902</v>
+        <v>13.41768346239673</v>
       </c>
       <c r="C16">
-        <v>15.16850219899252</v>
+        <v>9.624679207338806</v>
       </c>
       <c r="D16">
-        <v>8.985375895678201</v>
+        <v>6.44548611541665</v>
       </c>
       <c r="E16">
-        <v>14.98636568490246</v>
+        <v>12.49321926445521</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>28.69760201519003</v>
+        <v>24.07546707952098</v>
       </c>
       <c r="H16">
-        <v>8.544649907891962</v>
+        <v>12.46370516518568</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.25452248285084</v>
+        <v>15.1142668971927</v>
       </c>
       <c r="N16">
-        <v>10.36911521078541</v>
+        <v>16.22340811592531</v>
       </c>
       <c r="O16">
-        <v>15.5688121329459</v>
+        <v>18.44146767383633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.74657749328975</v>
+        <v>13.19142545165643</v>
       </c>
       <c r="C17">
-        <v>14.89668270142466</v>
+        <v>9.488462080410228</v>
       </c>
       <c r="D17">
-        <v>8.789402612228505</v>
+        <v>6.387319229467114</v>
       </c>
       <c r="E17">
-        <v>14.63224764250877</v>
+        <v>12.42867767413763</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.1344615464985</v>
+        <v>23.9579934930295</v>
       </c>
       <c r="H17">
-        <v>8.48754712950582</v>
+        <v>12.47098851944452</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.81353748910242</v>
+        <v>14.98479478170975</v>
       </c>
       <c r="N17">
-        <v>10.4417713158697</v>
+        <v>16.24475044317103</v>
       </c>
       <c r="O17">
-        <v>15.36409932562521</v>
+        <v>18.43046128218158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.46995895514708</v>
+        <v>13.05955274089238</v>
       </c>
       <c r="C18">
-        <v>14.7382011718541</v>
+        <v>9.40908512641993</v>
       </c>
       <c r="D18">
-        <v>8.675096438350879</v>
+        <v>6.353780720812042</v>
       </c>
       <c r="E18">
-        <v>14.42652218058551</v>
+        <v>12.39185811827453</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.80956152257408</v>
+        <v>23.89118242176513</v>
       </c>
       <c r="H18">
-        <v>8.455514017178393</v>
+        <v>12.47545065509169</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.55644029051912</v>
+        <v>14.91010262362235</v>
       </c>
       <c r="N18">
-        <v>10.48388415219117</v>
+        <v>16.25720029942785</v>
       </c>
       <c r="O18">
-        <v>15.24725051355279</v>
+        <v>18.42468309874456</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.37559023744928</v>
+        <v>13.01460732383294</v>
       </c>
       <c r="C19">
-        <v>14.68417517686871</v>
+        <v>9.382034105851925</v>
       </c>
       <c r="D19">
-        <v>8.636120385132964</v>
+        <v>6.34241230604458</v>
       </c>
       <c r="E19">
-        <v>14.35651254062934</v>
+        <v>12.37944494620439</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.69938940850792</v>
+        <v>23.86869374370952</v>
       </c>
       <c r="H19">
-        <v>8.444806416712145</v>
+        <v>12.47700830163291</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.46879564389493</v>
+        <v>14.88477748601569</v>
       </c>
       <c r="N19">
-        <v>10.49819812731638</v>
+        <v>16.26144557087321</v>
       </c>
       <c r="O19">
-        <v>15.20784326390823</v>
+        <v>18.42282164531164</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.79743638342219</v>
+        <v>13.21569114285936</v>
       </c>
       <c r="C20">
-        <v>14.92583971728982</v>
+        <v>9.503069370799153</v>
       </c>
       <c r="D20">
-        <v>8.810428298002098</v>
+        <v>6.393520037125848</v>
       </c>
       <c r="E20">
-        <v>14.67015512888202</v>
+        <v>12.43551716793509</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.19451299831668</v>
+        <v>23.97042103327062</v>
       </c>
       <c r="H20">
-        <v>8.493541654448917</v>
+        <v>12.47018493735427</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.8608379581197</v>
+        <v>14.99860104629887</v>
       </c>
       <c r="N20">
-        <v>10.43400347971428</v>
+        <v>16.24246048115189</v>
       </c>
       <c r="O20">
-        <v>15.38579897317373</v>
+        <v>18.43157577594787</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.16565083277828</v>
+        <v>13.87040931762898</v>
       </c>
       <c r="C21">
-        <v>15.71223757140688</v>
+        <v>9.897354004810607</v>
       </c>
       <c r="D21">
-        <v>9.37720871200003</v>
+        <v>6.564155308665957</v>
       </c>
       <c r="E21">
-        <v>15.69974990848781</v>
+        <v>12.62744008016078</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.84587149662272</v>
+        <v>24.32106701631034</v>
       </c>
       <c r="H21">
-        <v>8.667046573350978</v>
+        <v>12.45052282002974</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.13698225162874</v>
+        <v>15.37817178845241</v>
       </c>
       <c r="N21">
-        <v>10.2221926598289</v>
+        <v>16.18075399858007</v>
       </c>
       <c r="O21">
-        <v>15.99429718528968</v>
+        <v>18.46758261749272</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.02360052768426</v>
+        <v>14.2823799059461</v>
       </c>
       <c r="C22">
-        <v>16.2071271228011</v>
+        <v>10.14562497094</v>
       </c>
       <c r="D22">
-        <v>9.73379407005976</v>
+        <v>6.674659770180429</v>
       </c>
       <c r="E22">
-        <v>16.35520425680364</v>
+        <v>12.75528880822487</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.93259614512673</v>
+        <v>24.55641126340637</v>
       </c>
       <c r="H22">
-        <v>8.787879992136647</v>
+        <v>12.44010990367533</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.94090257792922</v>
+        <v>15.62367847997707</v>
       </c>
       <c r="N22">
-        <v>10.08669124614118</v>
+        <v>16.14197192286946</v>
       </c>
       <c r="O22">
-        <v>16.3996271735354</v>
+        <v>18.49601438944837</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.56899004312639</v>
+        <v>14.06398114496208</v>
       </c>
       <c r="C23">
-        <v>15.94473918557845</v>
+        <v>10.01399107535219</v>
       </c>
       <c r="D23">
-        <v>9.544729107045669</v>
+        <v>6.615787506783169</v>
       </c>
       <c r="E23">
-        <v>16.00693148103356</v>
+        <v>12.68684626048118</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.34553094535856</v>
+        <v>24.43026596931571</v>
       </c>
       <c r="H23">
-        <v>8.722698137097327</v>
+        <v>12.44544414690263</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.51455737006707</v>
+        <v>15.49290856519704</v>
       </c>
       <c r="N23">
-        <v>10.15873970745806</v>
+        <v>16.16252939018471</v>
       </c>
       <c r="O23">
-        <v>16.18260998048122</v>
+        <v>18.48039271382816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.77445631639142</v>
+        <v>13.20472620606558</v>
       </c>
       <c r="C24">
-        <v>14.91266471001419</v>
+        <v>9.496468725697484</v>
       </c>
       <c r="D24">
-        <v>8.800927692349751</v>
+        <v>6.390716952779756</v>
       </c>
       <c r="E24">
-        <v>14.65302382273867</v>
+        <v>12.43242413797642</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.16736728760727</v>
+        <v>23.96480027448105</v>
       </c>
       <c r="H24">
-        <v>8.490829052696672</v>
+        <v>12.47054738076608</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.83946453978855</v>
+        <v>14.99236002774585</v>
       </c>
       <c r="N24">
-        <v>10.43751425409299</v>
+        <v>16.24349521261638</v>
       </c>
       <c r="O24">
-        <v>15.37598593168158</v>
+        <v>18.43107020131342</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.68083311601486</v>
+        <v>12.21196513715645</v>
       </c>
       <c r="C25">
-        <v>13.71778193156113</v>
+        <v>8.899132852032704</v>
       </c>
       <c r="D25">
-        <v>7.937762470219865</v>
+        <v>6.144978736980099</v>
       </c>
       <c r="E25">
-        <v>13.29125905042058</v>
+        <v>12.16973325586557</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.78078284510666</v>
+        <v>23.49195148184513</v>
       </c>
       <c r="H25">
-        <v>8.271570793697553</v>
+        <v>12.50805477561766</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.90024548758251</v>
+        <v>14.44428956515366</v>
       </c>
       <c r="N25">
-        <v>10.75055928087737</v>
+        <v>16.33749808402536</v>
       </c>
       <c r="O25">
-        <v>14.54047912087072</v>
+        <v>18.3989878827321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.42766425382235</v>
+        <v>19.00102749657923</v>
       </c>
       <c r="C2">
-        <v>8.427414583316333</v>
+        <v>12.76848722618986</v>
       </c>
       <c r="D2">
-        <v>5.963108808551331</v>
+        <v>7.248259433604042</v>
       </c>
       <c r="E2">
-        <v>11.98782532598147</v>
+        <v>12.32619197489102</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.17167564713594</v>
+        <v>23.99893074403363</v>
       </c>
       <c r="H2">
-        <v>12.5445949370599</v>
+        <v>8.13528381014557</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.03703616595114</v>
+        <v>17.35538994935506</v>
       </c>
       <c r="N2">
-        <v>16.41249102773353</v>
+        <v>10.99157060228171</v>
       </c>
       <c r="O2">
-        <v>18.39355203554458</v>
+        <v>13.9571886321614</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.86516943622082</v>
+        <v>17.77533133613536</v>
       </c>
       <c r="C3">
-        <v>8.088960860294682</v>
+        <v>12.08258444628886</v>
       </c>
       <c r="D3">
-        <v>5.840153089886527</v>
+        <v>6.74654498586739</v>
       </c>
       <c r="E3">
-        <v>11.87239369642501</v>
+        <v>11.65994188399942</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.973279432288</v>
+        <v>22.78172535893898</v>
       </c>
       <c r="H3">
-        <v>12.57489782729059</v>
+        <v>8.05781317326497</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.76052017596205</v>
+        <v>16.23413602570525</v>
       </c>
       <c r="N3">
-        <v>16.46694205877631</v>
+        <v>11.16147142120409</v>
       </c>
       <c r="O3">
-        <v>18.40119252298524</v>
+        <v>13.5829847745358</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.50551810267777</v>
+        <v>16.97944237937303</v>
       </c>
       <c r="C4">
-        <v>7.872365063969617</v>
+        <v>11.64088420250973</v>
       </c>
       <c r="D4">
-        <v>5.765116096129297</v>
+        <v>6.421260952862276</v>
       </c>
       <c r="E4">
-        <v>11.80559634225844</v>
+        <v>11.24590865091902</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.86104530854675</v>
+        <v>22.03217012349826</v>
       </c>
       <c r="H4">
-        <v>12.59622615308106</v>
+        <v>8.017291970373973</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.59111784521103</v>
+        <v>15.50871192662881</v>
       </c>
       <c r="N4">
-        <v>16.50217205575349</v>
+        <v>11.26904184834619</v>
       </c>
       <c r="O4">
-        <v>18.41145443260397</v>
+        <v>13.36401836012554</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.35554677301717</v>
+        <v>16.64419539329397</v>
       </c>
       <c r="C5">
-        <v>7.781974630373615</v>
+        <v>11.45580857848069</v>
       </c>
       <c r="D5">
-        <v>5.734701339224297</v>
+        <v>6.284337703854281</v>
       </c>
       <c r="E5">
-        <v>11.77943057541989</v>
+        <v>11.0761456897162</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.81777068059904</v>
+        <v>21.72662869976489</v>
       </c>
       <c r="H5">
-        <v>12.60560059545602</v>
+        <v>8.002503032693999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.52227907798822</v>
+        <v>15.20376587719578</v>
       </c>
       <c r="N5">
-        <v>16.51698143150424</v>
+        <v>11.31369743194266</v>
       </c>
       <c r="O5">
-        <v>18.41703412805609</v>
+        <v>13.27755666149799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.33044399469641</v>
+        <v>16.58786805483934</v>
       </c>
       <c r="C6">
-        <v>7.766839612411873</v>
+        <v>11.42477319592908</v>
       </c>
       <c r="D6">
-        <v>5.729662282604667</v>
+        <v>6.261336917238072</v>
       </c>
       <c r="E6">
-        <v>11.7751502730156</v>
+        <v>11.04790054049209</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.81073504578432</v>
+        <v>21.67590285285607</v>
       </c>
       <c r="H6">
-        <v>12.60719841701979</v>
+        <v>8.000149974641403</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.51086308418349</v>
+        <v>15.15256560096736</v>
       </c>
       <c r="N6">
-        <v>16.51946789977179</v>
+        <v>11.32116205479689</v>
       </c>
       <c r="O6">
-        <v>18.41804495779121</v>
+        <v>13.26336839492054</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.50350908683822</v>
+        <v>16.97496534563168</v>
       </c>
       <c r="C7">
-        <v>7.871154516866065</v>
+        <v>11.63840863903016</v>
       </c>
       <c r="D7">
-        <v>5.764705186236624</v>
+        <v>6.41943208712739</v>
       </c>
       <c r="E7">
-        <v>11.8052391545039</v>
+        <v>11.24362308457501</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.86045166013716</v>
+        <v>22.02804920435811</v>
       </c>
       <c r="H7">
-        <v>12.59634981689599</v>
+        <v>8.017085608302626</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.59018854441525</v>
+        <v>15.50463712859719</v>
       </c>
       <c r="N7">
-        <v>16.50236994516463</v>
+        <v>11.26964076618676</v>
       </c>
       <c r="O7">
-        <v>18.41152402691167</v>
+        <v>13.36284103145968</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.23677823051851</v>
+        <v>18.58737676674641</v>
       </c>
       <c r="C8">
-        <v>8.312585152075789</v>
+        <v>12.53630035509843</v>
       </c>
       <c r="D8">
-        <v>5.920647232685595</v>
+        <v>7.078822962407641</v>
       </c>
       <c r="E8">
-        <v>11.94719640382752</v>
+        <v>12.09760738155498</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.10131311679699</v>
+        <v>23.57994709602228</v>
       </c>
       <c r="H8">
-        <v>12.55447747587737</v>
+        <v>8.107081826891473</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.94167329722321</v>
+        <v>16.97643037269879</v>
       </c>
       <c r="N8">
-        <v>16.4308934295704</v>
+        <v>11.04947889588851</v>
       </c>
       <c r="O8">
-        <v>18.39502883630185</v>
+        <v>13.82595726019668</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.55492158649543</v>
+        <v>21.40740223510896</v>
       </c>
       <c r="C9">
-        <v>9.105432751202807</v>
+        <v>14.13114876252522</v>
       </c>
       <c r="D9">
-        <v>6.228013885831764</v>
+        <v>8.236797510640363</v>
       </c>
       <c r="E9">
-        <v>12.25652570150065</v>
+        <v>13.72602814492723</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>23.64707837271448</v>
+        <v>26.58914186024681</v>
       </c>
       <c r="H9">
-        <v>12.4940308171819</v>
+        <v>8.341423350465478</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.62971455930249</v>
+        <v>19.57145719798788</v>
       </c>
       <c r="N9">
-        <v>16.30493831284607</v>
+        <v>10.64347286907915</v>
       </c>
       <c r="O9">
-        <v>18.40696945174458</v>
+        <v>14.81712415521887</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.44326418808323</v>
+        <v>23.27383831688218</v>
       </c>
       <c r="C10">
-        <v>9.640082214175804</v>
+        <v>15.19922875222218</v>
       </c>
       <c r="D10">
-        <v>6.452111200377285</v>
+        <v>9.007523689329576</v>
       </c>
       <c r="E10">
-        <v>12.50062401855998</v>
+        <v>15.0264982125442</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.08897227343813</v>
+        <v>28.76172200616646</v>
       </c>
       <c r="H10">
-        <v>12.46291109377723</v>
+        <v>8.551276372459409</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.12900829359884</v>
+        <v>21.30437596050125</v>
       </c>
       <c r="N10">
-        <v>16.22099640872513</v>
+        <v>10.36086855441552</v>
       </c>
       <c r="O10">
-        <v>18.44279837728413</v>
+        <v>15.59229147809467</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.82890593996421</v>
+        <v>24.0791134340931</v>
       </c>
       <c r="C11">
-        <v>9.87235003059169</v>
+        <v>15.66239150127108</v>
       </c>
       <c r="D11">
-        <v>6.553153299465421</v>
+        <v>9.341293474313376</v>
       </c>
       <c r="E11">
-        <v>12.61485847405787</v>
+        <v>15.63406336230888</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.29797674937069</v>
+        <v>29.73941750249969</v>
       </c>
       <c r="H11">
-        <v>12.45165493392587</v>
+        <v>8.655373495569645</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.35371684535628</v>
+        <v>22.05605566440535</v>
       </c>
       <c r="N11">
-        <v>16.18466225931169</v>
+        <v>10.23574796513689</v>
       </c>
       <c r="O11">
-        <v>18.46496350845503</v>
+        <v>15.95441723151881</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.97221207416575</v>
+        <v>24.37782701381925</v>
       </c>
       <c r="C12">
-        <v>9.958691625023866</v>
+        <v>15.83450925101441</v>
       </c>
       <c r="D12">
-        <v>6.591244532042413</v>
+        <v>9.465306981213566</v>
       </c>
       <c r="E12">
-        <v>12.65853443172638</v>
+        <v>15.86113135947289</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.37818866842472</v>
+        <v>30.10800283221917</v>
       </c>
       <c r="H12">
-        <v>12.44781057666444</v>
+        <v>8.696066507417788</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.43837528491133</v>
+        <v>22.33552547347229</v>
       </c>
       <c r="N12">
-        <v>16.17116872037533</v>
+        <v>10.18886910944808</v>
       </c>
       <c r="O12">
-        <v>18.47419783402552</v>
+        <v>16.09286004327134</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.941470872565</v>
+        <v>24.31376947784133</v>
       </c>
       <c r="C13">
-        <v>9.940168721603285</v>
+        <v>15.7975861178924</v>
       </c>
       <c r="D13">
-        <v>6.583049155729971</v>
+        <v>9.43870349787522</v>
       </c>
       <c r="E13">
-        <v>12.64911011295517</v>
+        <v>15.81235986384281</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.36086749010228</v>
+        <v>30.02869590123085</v>
       </c>
       <c r="H13">
-        <v>12.44861991751698</v>
+        <v>8.687245397744947</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.42016317745345</v>
+        <v>22.27556522616964</v>
       </c>
       <c r="N13">
-        <v>16.17406300381817</v>
+        <v>10.19894285463919</v>
       </c>
       <c r="O13">
-        <v>18.47217171346902</v>
+        <v>16.06298619284222</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.84075086178405</v>
+        <v>24.10381315802481</v>
       </c>
       <c r="C14">
-        <v>9.879485938079226</v>
+        <v>15.67661730342801</v>
       </c>
       <c r="D14">
-        <v>6.556290749458848</v>
+        <v>9.351543540671827</v>
       </c>
       <c r="E14">
-        <v>12.61844358584601</v>
+        <v>15.65280389209008</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.30455493483103</v>
+        <v>29.76977471697892</v>
       </c>
       <c r="H14">
-        <v>12.45133027147529</v>
+        <v>8.658695629535785</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.36069091237269</v>
+        <v>22.07915096172552</v>
       </c>
       <c r="N14">
-        <v>16.18354682304584</v>
+        <v>10.23188110888171</v>
       </c>
       <c r="O14">
-        <v>18.46570638903228</v>
+        <v>15.96578093673926</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.77869976351531</v>
+        <v>23.97440009026254</v>
       </c>
       <c r="C15">
-        <v>9.842104842673573</v>
+        <v>15.60209431210061</v>
       </c>
       <c r="D15">
-        <v>6.539876960730664</v>
+        <v>9.297847202448635</v>
       </c>
       <c r="E15">
-        <v>12.59971263215293</v>
+        <v>15.55468363186903</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.27019828911317</v>
+        <v>29.61096102523683</v>
       </c>
       <c r="H15">
-        <v>12.4530449194684</v>
+        <v>8.641374868068096</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.32420348523838</v>
+        <v>21.95817053932196</v>
       </c>
       <c r="N15">
-        <v>16.18939047708218</v>
+        <v>10.25212232778572</v>
       </c>
       <c r="O15">
-        <v>18.46185559851677</v>
+        <v>15.90640962603035</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.41768346239673</v>
+        <v>23.22033650805901</v>
       </c>
       <c r="C16">
-        <v>9.624679207338806</v>
+        <v>15.16850219899267</v>
       </c>
       <c r="D16">
-        <v>6.44548611541665</v>
+        <v>8.9853758956781</v>
       </c>
       <c r="E16">
-        <v>12.49321926445521</v>
+        <v>14.98636568490245</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.07546707952098</v>
+        <v>28.69760201518999</v>
       </c>
       <c r="H16">
-        <v>12.46370516518568</v>
+        <v>8.544649907891948</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.1142668971927</v>
+        <v>21.25452248285086</v>
       </c>
       <c r="N16">
-        <v>16.22340811592531</v>
+        <v>10.36911521078548</v>
       </c>
       <c r="O16">
-        <v>18.44146767383633</v>
+        <v>15.56881213294588</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.19142545165643</v>
+        <v>22.74657749328975</v>
       </c>
       <c r="C17">
-        <v>9.488462080410228</v>
+        <v>14.89668270142453</v>
       </c>
       <c r="D17">
-        <v>6.387319229467114</v>
+        <v>8.789402612228519</v>
       </c>
       <c r="E17">
-        <v>12.42867767413763</v>
+        <v>14.63224764250879</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.9579934930295</v>
+        <v>28.13446154649849</v>
       </c>
       <c r="H17">
-        <v>12.47098851944452</v>
+        <v>8.487547129505849</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.98479478170975</v>
+        <v>20.81353748910242</v>
       </c>
       <c r="N17">
-        <v>16.24475044317103</v>
+        <v>10.44177131586974</v>
       </c>
       <c r="O17">
-        <v>18.43046128218158</v>
+        <v>15.36409932562525</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.05955274089238</v>
+        <v>22.469958955147</v>
       </c>
       <c r="C18">
-        <v>9.40908512641993</v>
+        <v>14.73820117185412</v>
       </c>
       <c r="D18">
-        <v>6.353780720812042</v>
+        <v>8.67509643835087</v>
       </c>
       <c r="E18">
-        <v>12.39185811827453</v>
+        <v>14.42652218058554</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.89118242176513</v>
+        <v>27.80956152257402</v>
       </c>
       <c r="H18">
-        <v>12.47545065509169</v>
+        <v>8.455514017178393</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.91010262362235</v>
+        <v>20.55644029051913</v>
       </c>
       <c r="N18">
-        <v>16.25720029942785</v>
+        <v>10.48388415219111</v>
       </c>
       <c r="O18">
-        <v>18.42468309874456</v>
+        <v>15.24725051355277</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.01460732383294</v>
+        <v>22.37559023744925</v>
       </c>
       <c r="C19">
-        <v>9.382034105851925</v>
+        <v>14.68417517686879</v>
       </c>
       <c r="D19">
-        <v>6.34241230604458</v>
+        <v>8.636120385132941</v>
       </c>
       <c r="E19">
-        <v>12.37944494620439</v>
+        <v>14.3565125406293</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.86869374370952</v>
+        <v>27.69938940850788</v>
       </c>
       <c r="H19">
-        <v>12.47700830163291</v>
+        <v>8.444806416712133</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.88477748601569</v>
+        <v>20.4687956438949</v>
       </c>
       <c r="N19">
-        <v>16.26144557087321</v>
+        <v>10.49819812731641</v>
       </c>
       <c r="O19">
-        <v>18.42282164531164</v>
+        <v>15.20784326390823</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.21569114285936</v>
+        <v>22.79743638342226</v>
       </c>
       <c r="C20">
-        <v>9.503069370799153</v>
+        <v>14.92583971728988</v>
       </c>
       <c r="D20">
-        <v>6.393520037125848</v>
+        <v>8.81042829800206</v>
       </c>
       <c r="E20">
-        <v>12.43551716793509</v>
+        <v>14.67015512888201</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.97042103327062</v>
+        <v>28.19451299831668</v>
       </c>
       <c r="H20">
-        <v>12.47018493735427</v>
+        <v>8.493541654448888</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.99860104629887</v>
+        <v>20.86083795811973</v>
       </c>
       <c r="N20">
-        <v>16.24246048115189</v>
+        <v>10.43400347971431</v>
       </c>
       <c r="O20">
-        <v>18.43157577594787</v>
+        <v>15.38579897317371</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.87040931762898</v>
+        <v>24.1656508327783</v>
       </c>
       <c r="C21">
-        <v>9.897354004810607</v>
+        <v>15.71223757140681</v>
       </c>
       <c r="D21">
-        <v>6.564155308665957</v>
+        <v>9.377208712000021</v>
       </c>
       <c r="E21">
-        <v>12.62744008016078</v>
+        <v>15.69974990848783</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.32106701631034</v>
+        <v>29.84587149662268</v>
       </c>
       <c r="H21">
-        <v>12.45052282002974</v>
+        <v>8.667046573350994</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.37817178845241</v>
+        <v>22.13698225162874</v>
       </c>
       <c r="N21">
-        <v>16.18075399858007</v>
+        <v>10.22219265982891</v>
       </c>
       <c r="O21">
-        <v>18.46758261749272</v>
+        <v>15.99429718528967</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.2823799059461</v>
+        <v>25.02360052768419</v>
       </c>
       <c r="C22">
-        <v>10.14562497094</v>
+        <v>16.20712712280107</v>
       </c>
       <c r="D22">
-        <v>6.674659770180429</v>
+        <v>9.733794070059663</v>
       </c>
       <c r="E22">
-        <v>12.75528880822487</v>
+        <v>16.35520425680367</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.55641126340637</v>
+        <v>30.93259614512669</v>
       </c>
       <c r="H22">
-        <v>12.44010990367533</v>
+        <v>8.787879992136679</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.62367847997707</v>
+        <v>22.94090257792922</v>
       </c>
       <c r="N22">
-        <v>16.14197192286946</v>
+        <v>10.08669124614124</v>
       </c>
       <c r="O22">
-        <v>18.49601438944837</v>
+        <v>16.39962717353541</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.06398114496208</v>
+        <v>24.56899004312639</v>
       </c>
       <c r="C23">
-        <v>10.01399107535219</v>
+        <v>15.94473918557845</v>
       </c>
       <c r="D23">
-        <v>6.615787506783169</v>
+        <v>9.544729107045661</v>
       </c>
       <c r="E23">
-        <v>12.68684626048118</v>
+        <v>16.00693148103353</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.43026596931571</v>
+        <v>30.34553094535853</v>
       </c>
       <c r="H23">
-        <v>12.44544414690263</v>
+        <v>8.722698137097256</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.49290856519704</v>
+        <v>22.51455737006706</v>
       </c>
       <c r="N23">
-        <v>16.16252939018471</v>
+        <v>10.158739707458</v>
       </c>
       <c r="O23">
-        <v>18.48039271382816</v>
+        <v>16.18260998048117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.20472620606558</v>
+        <v>22.77445631639139</v>
       </c>
       <c r="C24">
-        <v>9.496468725697484</v>
+        <v>14.91266471001412</v>
       </c>
       <c r="D24">
-        <v>6.390716952779756</v>
+        <v>8.800927692349775</v>
       </c>
       <c r="E24">
-        <v>12.43242413797642</v>
+        <v>14.65302382273866</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.96480027448105</v>
+        <v>28.16736728760724</v>
       </c>
       <c r="H24">
-        <v>12.47054738076608</v>
+        <v>8.490829052696677</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.99236002774585</v>
+        <v>20.8394645397885</v>
       </c>
       <c r="N24">
-        <v>16.24349521261638</v>
+        <v>10.43751425409299</v>
       </c>
       <c r="O24">
-        <v>18.43107020131342</v>
+        <v>15.37598593168161</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.21196513715645</v>
+        <v>20.68083311601483</v>
       </c>
       <c r="C25">
-        <v>8.899132852032704</v>
+        <v>13.71778193156102</v>
       </c>
       <c r="D25">
-        <v>6.144978736980099</v>
+        <v>7.937762470219793</v>
       </c>
       <c r="E25">
-        <v>12.16973325586557</v>
+        <v>13.29125905042058</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.49195148184513</v>
+        <v>25.78078284510656</v>
       </c>
       <c r="H25">
-        <v>12.50805477561766</v>
+        <v>8.271570793697595</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.44428956515366</v>
+        <v>18.90024548758248</v>
       </c>
       <c r="N25">
-        <v>16.33749808402536</v>
+        <v>10.75055928087745</v>
       </c>
       <c r="O25">
-        <v>18.3989878827321</v>
+        <v>14.54047912087069</v>
       </c>
     </row>
   </sheetData>
